--- a/Excels/ActionFinders.xlsx
+++ b/Excels/ActionFinders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>唯一标识</t>
   </si>
@@ -55,22 +55,46 @@
     <t>all</t>
   </si>
   <si>
-    <t>client</t>
+    <t>server</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t>JCombatOppoDefaultFinder</t>
+    <t>JCombatFindOppoDefault</t>
   </si>
   <si>
     <t>按座位返回一个默认敌人</t>
   </si>
   <si>
-    <t>JCombatFinderSelf</t>
+    <t>JCombatFindSelf</t>
   </si>
   <si>
     <t>返回自己</t>
+  </si>
+  <si>
+    <t>JCombatFindCol</t>
+  </si>
+  <si>
+    <t>返回一列敌人</t>
+  </si>
+  <si>
+    <t>JCombatFindCross</t>
+  </si>
+  <si>
+    <t>返回十字敌人</t>
+  </si>
+  <si>
+    <t>JCombatFindRow</t>
+  </si>
+  <si>
+    <t>返回一行敌人</t>
+  </si>
+  <si>
+    <t>JCombatFindRandom</t>
+  </si>
+  <si>
+    <t>返回随机N个敌人</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1034,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1088,24 +1112,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/Excels/ActionFinders.xlsx
+++ b/Excels/ActionFinders.xlsx
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
